--- a/Dev/PythonDev/Work/Testing/RecommendationSystem/FinalResults/Average.xlsx
+++ b/Dev/PythonDev/Work/Testing/RecommendationSystem/FinalResults/Average.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Workspace\AI\Thesis\FinalYearProject\FYPWAAR\Dev\PythonDev\Work\Testing\RecommendationSystem\FinalResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A0FFD8-C059-45A3-886F-9B7334B5725B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66329AEF-88F0-4B05-AAFA-E7CFA6015529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17040" yWindow="1980" windowWidth="3360" windowHeight="7710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,19 +454,19 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>3.1275146666667002</v>
+        <v>3.1280506666667001</v>
       </c>
       <c r="C3" s="1">
-        <v>2.6904460000000001</v>
+        <v>2.6877559999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>2.3735666666666998E-2</v>
+        <v>2.4201E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>1.5326666666666999E-3</v>
+        <v>1.3333333333332999E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -488,105 +488,105 @@
     </row>
     <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>3.1278646666666998</v>
+        <v>3.1285606666666999</v>
       </c>
       <c r="C5" s="1">
-        <v>2.6909066666667001</v>
+        <v>2.6893436666667001</v>
       </c>
       <c r="D5" s="1">
-        <v>1.4133666666667001E-2</v>
+        <v>6.1975666666666998E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>2.134E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>3.1280506666667001</v>
+        <v>3.1291746666667</v>
       </c>
       <c r="C6" s="1">
-        <v>2.6877559999999998</v>
+        <v>2.6903803333332998</v>
       </c>
       <c r="D6" s="1">
-        <v>2.4201E-2</v>
+        <v>3.3335333333333002E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>1.3333333333332999E-3</v>
+        <v>1.7336666666667E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>3.1285606666666999</v>
+        <v>3.1275146666667002</v>
       </c>
       <c r="C7" s="1">
-        <v>2.6893436666667001</v>
+        <v>2.6904460000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>6.1975666666666998E-2</v>
+        <v>2.3735666666666998E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5326666666666999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>3.1285980000000002</v>
+        <v>3.1278646666666998</v>
       </c>
       <c r="C8" s="1">
-        <v>2.6915143333332998</v>
+        <v>2.6909066666667001</v>
       </c>
       <c r="D8" s="1">
-        <v>6.0205000000000002E-2</v>
+        <v>1.4133666666667001E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>2.0669999999999998E-3</v>
+        <v>2.134E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>3.1291746666667</v>
+        <v>3.130042</v>
       </c>
       <c r="C9" s="1">
-        <v>2.6903803333332998</v>
+        <v>2.691446</v>
       </c>
       <c r="D9" s="1">
-        <v>3.3335333333333002E-2</v>
+        <v>0.10939400000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>1.7336666666667E-3</v>
+        <v>1.4663333333333E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
-        <v>3.130042</v>
+        <v>3.1285980000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>2.691446</v>
+        <v>2.6915143333332998</v>
       </c>
       <c r="D10" s="1">
-        <v>0.10939400000000001</v>
+        <v>6.0205000000000002E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>1.4663333333333E-3</v>
+        <v>2.0669999999999998E-3</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -608,7 +608,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
-    <sortCondition ref="B2:B11"/>
+    <sortCondition ref="C2:C11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
